--- a/biology/Zoologie/Didier_(film)/Didier_(film).xlsx
+++ b/biology/Zoologie/Didier_(film)/Didier_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didier est un film français réalisé par Alain Chabat, sorti en 1997.
 Alain Chabat a reçu, pour ce film, le César du meilleur premier film en 1998.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre, agent de football, a accepté de garder Didier, le chien d'Annabelle, une amie journaliste. Au cours de la nuit, le labrador prend une apparence humaine, mais reste psychologiquement toujours un chien. Aux prises avec Richard, le patron du club de football pour lequel il est agent, Jean-Pierre n'avait pas besoin d'un problème supplémentaire, en plus de ses soucis avec ses joueurs vedettes, d'abord Baco, puis Fabrice blessé juste une semaine avant un match très important contre le PSG. Didier va révéler certaines dispositions footballistiques et l'aider à remplacer les joueurs blessés. De plus, il finira même par réconcilier Jean-Pierre et sa petite amie Maria.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre : Didier
@@ -557,7 +573,7 @@
 Production : Claude Berri
 Sociétés de production : Renn, Katharina et Pathé
 Société de distribution : Pathé Films, AMLF (France)
-Budget de production : 59 millions de francs (9 M€)[1]
+Budget de production : 59 millions de francs (9 M€)
 Langue originale : français
 Format : couleur — 35 mm
 Genre : comédie
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean-Pierre Bacri : Jean-Pierre Costa, un agent de footballeurs
@@ -658,7 +676,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
@@ -694,10 +714,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-César 1998 : César du meilleur premier film pour Alain Chabat
-Nominations
-César 1998 : César du meilleur acteur pour Alain Chabat</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>César 1998 : César du meilleur premier film pour Alain Chabat</t>
         </is>
       </c>
     </row>
@@ -722,13 +745,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Autour du film</t>
+          <t>Distinctions</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Le match que joue l'équipe de Didier contre le Paris Saint-Germain a bien été tourné au Parc des Princes[2],[3].
-Le nom de famille de Didier fait référence à Michel Hazanavicius, ancien collaborateur d'Alain Chabat dans Les Nuls L'émission, qui a également un petit rôle dans le film, comme son frère Serge.</t>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>César 1998 : César du meilleur acteur pour Alain Chabat</t>
         </is>
       </c>
     </row>
@@ -753,12 +781,47 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le match que joue l'équipe de Didier contre le Paris Saint-Germain a bien été tourné au Parc des Princes,.
+Le nom de famille de Didier fait référence à Michel Hazanavicius, ancien collaborateur d'Alain Chabat dans Les Nuls L'émission, qui a également un petit rôle dans le film, comme son frère Serge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Didier_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Didier_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Le chien utilisé pour le rôle-titre, Elliot, est l'ancien chien d'une vedette du PSG de l'époque, joueur puis entraîneur, Ricardo[4].</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le chien utilisé pour le rôle-titre, Elliot, est l'ancien chien d'une vedette du PSG de l'époque, joueur puis entraîneur, Ricardo.</t>
         </is>
       </c>
     </row>
